--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Recursos" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Paul</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Issac</t>
-  </si>
-  <si>
     <t>Miembro</t>
   </si>
   <si>
@@ -64,6 +61,30 @@
   </si>
   <si>
     <t>Tener Simulado la etapa de potencia para Terapia</t>
+  </si>
+  <si>
+    <t>Issac/Juan</t>
+  </si>
+  <si>
+    <t>Interrupcion para pin botones</t>
+  </si>
+  <si>
+    <t>Terminar Interrupciones</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>Terminar Pits</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
+  </si>
+  <si>
+    <t>Terminar Scheduler v1</t>
   </si>
 </sst>
 </file>
@@ -79,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,31 +431,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -460,6 +491,9 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -477,13 +511,64 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42798</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42798</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42798</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42798</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
